--- a/ppt/技术族任职资格汇总.xlsx
+++ b/ppt/技术族任职资格汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="16380" windowHeight="16000" tabRatio="906" firstSheet="5" activeTab="9"/>
+    <workbookView windowHeight="16740" tabRatio="906" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="14" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551">
   <si>
     <t>目    录</t>
   </si>
@@ -3582,246 +3582,235 @@
 </t>
   </si>
   <si>
+    <t>1、通过对区块链领域的产品发展方向的研究，参与公司区块链产品决策
+2、负责跟踪业界区块链技术发展与动态，参与开源社区技术交流合作</t>
+  </si>
+  <si>
+    <t>技术</t>
+  </si>
+  <si>
+    <t>1、通过文档指引，或在他人指导下完成部分模块功能的开发和解决研发中遇到的问题
+2、负责独立修复中低难度的bug</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-6、通过对区块链领域的产品发展方向的研究，参与公司区块链产品决策
-7、负责跟踪业界区块链技术发展与动态，参与开源社区技术交流合作</t>
-  </si>
-  <si>
-    <t>技术</t>
-  </si>
-  <si>
-    <t>1、通过文档指引，或在他人指导下完成部分模块功能的开发和解决研发中遇到的问题
-3、负责独立修复中低难度的bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-3、通过运用现有流程工具，解决常规化问题
-4、负责对开发中疑难问题提出判断或者建议</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2、负责一个中型系统或项目开发
- 3、通过运用掌握的机制和原理，解决问题
-6、负责指导完成系统级程序的设计，开发，制订相关技术方向的中短期规划</t>
-  </si>
-  <si>
-    <t>2、负责带领本技术领域小组攻克关键产品的架构优化、软件重构、软件工程攻坚项目；并在项目中承担骨干开发角色
-3、负责核心框架、关键代码的设计和开发，为关键方向和领域项目的突破成功负责
-4、参与关键技术方案的讨论和技术把关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4、负责现有区块链系统关键模块重构、架构优化、软件技术突破
-10、负责系统级程序的设计，开发，制订相关技术方向的长期规划</t>
+1、通过运用现有流程工具，解决常规化问题
+2、负责对开发中疑难问题提出判断或者建议</t>
+  </si>
+  <si>
+    <t>1、负责一个中型系统或项目开发
+2、通过运用掌握的机制和原理，解决问题
+3、负责指导完成系统级程序的设计，开发，制订相关技术方向的中短期规划</t>
+  </si>
+  <si>
+    <t>1、负责带领本技术领域小组攻克关键产品的架构优化、软件重构、软件工程攻坚项目；并在项目中承担骨干开发角色
+2、负责核心框架、关键代码的设计和开发，为关键方向和领域项目的突破成功负责
+3、参与关键技术方案的讨论和技术把关</t>
+  </si>
+  <si>
+    <t>1、负责现有区块链系统关键模块重构、架构优化、软件技术突破
+2、负责系统级程序的设计，开发，制订相关技术方向的长期规划</t>
   </si>
   <si>
     <t>流程规范</t>
   </si>
   <si>
-    <t>2、负责独立编写单元测试</t>
-  </si>
-  <si>
-    <t>2、严格遵循软件开发流程，独立负责完成指定任务，处理局部问题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-7、参与reviewP7/P8员工制定的公司开发编码规范</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-8、负责制定公司开发编码规范</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5、规范或者细化工作标准流程，培养和指导团队高效工作</t>
+    <t>1、负责独立编写单元测试</t>
+  </si>
+  <si>
+    <t>1、严格遵循软件开发流程，独立负责完成指定任务，处理局部问题</t>
+  </si>
+  <si>
+    <t>1、参与reviewP7/P8员工制定的公司开发编码规范</t>
+  </si>
+  <si>
+    <t>1、负责制定公司开发编码规范</t>
+  </si>
+  <si>
+    <t>1、规范或者细化工作标准流程，培养和指导团队高效工作</t>
   </si>
   <si>
     <t>项目推进</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5、负责带领本技术领域小组，完成项目开发任务
+    <t xml:space="preserve">1、负责带领本技术领域小组，完成项目开发任务
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. 负责跨团队的项目开发和实施
+    <t>1. 负责跨团队的项目开发和实施
 2. 参与评审他人的设计文档，能在项目初期发现设计漏洞</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1、负责主导大型复杂区块链系统项目的规划和实施    </t>
+    <t>1、负责主导大型复杂区块链系统项目的规划和实施    
+2. 参与评审他人的设计文档，能在项目初期发现设计漏洞</t>
   </si>
   <si>
     <t>团队辅导/成长</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4、负责担任技术导师角色，指导P4, P5员工的开发工作
+    <t xml:space="preserve">1、负责担任技术导师角色，指导P4, P5员工的开发工作
 </t>
   </si>
   <si>
-    <t>6、负责带领团队完成跨团队的项目开发工作
-7、负责指导他人完成开发任务，担任技术和思想导师角色，培养P5, P6工程师</t>
-  </si>
-  <si>
-    <t>2、负责带领并指导团队重构、提升软件能力和技术氛围
-3、通过对团队现有能力进行总结诊断和短板赋能，提升团队整体软件重构能力，探索先进软件方法和软件技术
-8、负责培养和指导P7架构师
-9、负责推动审定公司区块链专业人员发展，编制，及组织流程变革</t>
+    <t>1、负责带领团队完成跨团队的项目开发工作
+2、负责指导他人完成开发任务，担任技术和思想导师角色，培养P5, P6工程师</t>
+  </si>
+  <si>
+    <t>1、负责带领并指导团队重构、提升软件能力和技术氛围
+2、通过对团队现有能力进行总结诊断和短板赋能，提升团队整体软件重构能力，探索先进软件方法和软件技术
+3、负责培养和指导P7架构师
+4、负责推动审定公司区块链专业人员发展，编制，及组织流程变革</t>
   </si>
   <si>
     <t>专业基础</t>
   </si>
   <si>
-    <t xml:space="preserve">2、掌握必要的计算机科学专业理论知识
+    <t xml:space="preserve">1、掌握一种编程语言（C/C++、GO，Java等）
+2，熟悉常用数据结构，比如数组、链表、栈 、队列、树等。
 </t>
   </si>
   <si>
     <t>1、熟练掌握一种或以上的编程语言（C/C++、GO，Java等）
-6、熟悉计算机硬件、网络等知识
-7、熟悉计算机操作系统知识（如windows、Linux等）</t>
+2、熟悉计算机硬件、网络等知识
+3、熟悉计算机操作系统知识（如windows、Linux等）</t>
   </si>
   <si>
     <t xml:space="preserve">1、精通两种或以上的编程语言（C/C++、GO，Java等）
+4、熟悉计算机体系结构知识及设计模式   
 </t>
   </si>
   <si>
     <t>1、精通多种编程语言（C/C++、GO，rust，Java等）
-6、深刻理解内存管理、进程和线程的管理机制
-8、掌握几种常用的P2P通信协议(gossip, Kadamlia等)工作原理</t>
+2、深刻理解内存管理、进程和线程的管理机制
+3、掌握几种常用的P2P通信协议(gossip, Kadamlia等)工作原理</t>
   </si>
   <si>
     <t>1、精通多种编程语言（C/C++、GO，Rust, Java等）
 2、熟悉业界多种主流的中间件：分布式存储，消息中间件，计算框架，微服务框架
-5、深刻理解内存管理、进程和线程的管理机制
-7、掌握几种常用的P2P通信协议(gossip, Kadamlia等)工作原理</t>
+3、深刻理解内存管理、进程和线程的管理机制
+4、掌握几种常用的P2P通信协议(gossip, Kadamlia等)工作原理</t>
   </si>
   <si>
     <t>专业应用</t>
   </si>
   <si>
     <t xml:space="preserve">
-3、至少掌握一种编程语言（C/C++、GO，Java等）
-4、至少了解1种相关数据库
+1、至少了解1种相关数据库
+2，会使用linux常用命令 </t>
+  </si>
+  <si>
+    <t>1、掌握两种或以上的数据库知识(mysql，leveldb, rocksdb)
+2、熟练掌握多线程编程，网络编程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、了解多种的数据库(mysql，leveldb, rocksdb)工作原理，优缺点及适用场景
+2、精通多线程编程，网络编程，系统编程
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-2、掌握两种或以上的数据库知识(mysql，leveldb, rocksdb)
-5、熟练掌握多线程编程，网络编程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、了解多种的数据库(mysql，leveldb, rocksdb)工作原理，优缺点及适用场景
-4、掌握常用的设计模式
+    <t>1、熟练掌握1-2种性能调优工具(valgrind, pprof, wingdb, Purify, CodeAnalyst)
+2、掌握多种的数据库(mysql，leveldb, rocksdb)工作原理，优缺点及适用场景
+3、精通多线程编程，网络编程，系统编程
+4、掌握多种操作系统API调用</t>
+  </si>
+  <si>
+    <t>1、精通多种性能调优工具(valgrind, pprof, wingdb, Purify, CodeAnalyst)
+2、深刻理解服务器程序监控指标和性能指标(Throughput, Latency)
+3、深刻理解影响区块链网络性能的关键指标</t>
+  </si>
+  <si>
+    <t>方法和理论</t>
+  </si>
+  <si>
+    <t>1、掌握必要的计算机科学专业理论知识</t>
+  </si>
+  <si>
+    <t>1、了解常用的设计模式
+2、能理解程序设计理念、方法、流程和工具（如面向对象）
+3、了解软件测试理论、方法与工具（如单元、集成测试等）</t>
+  </si>
+  <si>
+    <t>1、熟悉软件工程理论知识（瀑布开发模式、敏捷开发模式、软件研发全生命周期）
+2、掌握常用的设计模式
+3、深刻理解BIP(Bitcoin Improvement Proposals)标准规范
+4、了解软件测试理论、方法与工具（如单元、集成测试等）</t>
+  </si>
+  <si>
+    <t>1、掌握常用的设计模式
+2、熟悉软件工程理论知识（瀑布开发模式、敏捷开发模式、软件研发全生命周期）
+3，理解去中心化系统的激励目的，以及各种激励手段</t>
+  </si>
+  <si>
+    <t>1、深刻理解各种设计模式，并能灵活运用在适用的开发场景
+2、掌握计算机科学与金融专业交叉领域的技术知识
+3、掌握软件工程理论知识（瀑布开发模式、敏捷开发模式、软件研发全生命周期）
+4，深刻理解去中心化系统的激励目的，以及各种激励手段
+5、掌握区块链系统建模、设计与重构等方法论</t>
+  </si>
+  <si>
+    <t>岗位核心业务,行业知识</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、了解公司基本制度和流程
+2、理解区块链相关的业务知识。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-7、熟练掌握1-2种性能调优工具(valgrind, pprof, wingdb, Purify, CodeAnalyst)
-2、掌握多种的数据库(mysql，leveldb, rocksdb)工作原理，优缺点及适用场景
-3、掌握理解各种设计模式
-4、精通多线程编程，网络编程，系统编程
-5、掌握多种操作系统API调用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4、深刻理解各种设计模式，并能灵活运用在适用的开发场景
-6、精通多种性能调优工具(valgrind, pprof, wingdb, Purify, CodeAnalyst)
-12、深刻理解服务器程序监控指标和性能指标(Throughput, Latency)
-13、深刻理解影响区块链网络性能的关键指标</t>
-  </si>
-  <si>
-    <t>方法和理论</t>
-  </si>
-  <si>
-    <t>4、了解常用的设计模式
-8、能理解程序设计理念、方法、流程和工具（如面向对象）
-3、了解软件测试理论、方法与工具（如单元、集成测试等）</t>
-  </si>
-  <si>
-    <t>3、熟悉软件工程理论知识（瀑布开发模式、敏捷开发模式、软件研发全生命周期）
-7、深刻理解BIP(Bitcoin Improvement Proposals)标准规范
-5、了解软件测试理论、方法与工具（如单元、集成测试等）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-13、熟悉软件工程理论知识（瀑布开发模式、敏捷开发模式、软件研发全生命周期）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-14、掌握计算机科学与金融专业交叉领域的技术知识
-15、掌握软件工程理论知识（瀑布开发模式、敏捷开发模式、软件研发全生命周期）</t>
-  </si>
-  <si>
-    <t>岗位核心业务,行业知识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、了解公司基本制度和流程
-5、理解区块链相关的业务知识。
+    <t xml:space="preserve">1、掌握区块链技术工作原理
+2、熟悉至少一种业界常见的区块链开源系统或解决方案（如比特币、以太坊、EOS、Fabric等）
+3、了解常用的非对称加密算法
+4、熟悉本岗位所需知识技能及工作流程
+5、熟悉区块链相关的业务知识。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-9、掌握区块链技术工作原理
-10、熟悉至少一种业界常见的区块链开源系统或解决方案（如比特币、以太坊、EOS、Fabric等）
-11、了解常用的非对称加密算法
-12、熟悉本岗位所需知识技能及工作流程
-13、熟悉区块链相关的业务知识。</t>
-  </si>
-  <si>
-    <t>6、深刻理解区块链工作原理，和区块链技术适应场景
-8、掌握HD(Hierarchical Deterministic)钱包设计原理
-9、熟悉常见加密算法的特征、适用场景，常见的身份认证机制
-10、掌握多种区块链共识算法(POW, POS, PBFT, VRF)
-11、熟悉至少一种区块链开源系统源代码（如比特币、以太坊、EOS、Fabric，Cosmos等）
-12、理解公司业务特点，流程
-13、理解相关产品的发展方向</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-9、深刻理解区块链工作原理，和区块链技术适应场景
-10、深刻理解多种区块链共识算法(POW, POS, PBFT, VRF)
-11、了解智能合约工作原理  
-12、掌握至少2种区块链开源系统源代码（如比特币、以太坊、EOS、Fabric，Cosmos等）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-3、掌握业界多种区块链开源系统源代码（如比特币、以太坊、EOS、Fabric，Cosmos等）
-8、深刻理解区块链工作原理，和区块链技术适应场景
-9、深刻理解多种区块链共识算法(POW, POS, PBFT, VRF)
-10、深刻理解智能合约虚拟机（如EVM、WASM等）工作原理 
-11、了解市面上主流的区块链落地应用项目</t>
+    <t>1、深刻理解区块链工作原理，和区块链技术适应场景
+2、掌握HD(Hierarchical Deterministic)钱包设计原理
+3、熟悉常见加密算法的特征、适用场景，常见的身份认证机制
+4、掌握多种区块链共识算法(POW, POS, PBFT, VRF)
+5、熟悉至少一种区块链开源系统源代码（如比特币、以太坊、EOS、Fabric，Cosmos等）
+6、理解公司业务特点，流程
+7、理解相关产品的发展方向
+8，了解基本的期权期货知识</t>
+  </si>
+  <si>
+    <t>1、深刻理解区块链工作原理，和区块链技术适应场景
+2、深刻理解多种区块链共识算法(POW, POS, PBFT, VRF)
+3、了解智能合约工作原理  
+4、掌握至少2种区块链开源系统源代码（如比特币、以太坊、EOS、Fabric，Cosmos等）
+5，掌握数字资产交易所的现货，期权，期货，币币杠杆等金融衍产品知识</t>
+  </si>
+  <si>
+    <t>1、掌握业界多种区块链开源系统源代码（如比特币、以太坊、EOS、Fabric，Cosmos等）
+2、深刻理解区块链工作原理，和区块链技术适应场景
+3、深刻理解多种区块链共识算法(POW, POS, PBFT, VRF)
+4、深刻理解智能合约虚拟机（如EVM、WASM等）工作原理 
+5、了解市面上主流的区块链落地应用项目
+6，深刻理解数字资产交易所的现货，期权，期货，币币杠杆等金融衍产品知识，以及用去中心化方式实现这些产品的技术</t>
   </si>
   <si>
     <t>理解和分析</t>
   </si>
   <si>
-    <t xml:space="preserve">
-3、掌握计算机体系结构知识及设计模式
-4、熟悉软件调试的相关技术
-5、了解测试、软件工程和质量控制的基本技术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、掌握指导、培养工程师的方法技巧
+    <t>1、掌握计算机体系结构知识及设计模式
+2、熟悉软件调试的相关技术
+3、了解测试、软件工程和质量控制的基本技术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、精通软件调试的相关技术
 2、熟练掌握开发过程文档的编写
 3、熟练掌握公司开发编码规范
-4、熟悉计算机体系结构知识及设计模式
-5、精通软件调试的相关技术   </t>
-  </si>
-  <si>
-    <t>1、精通计算机体系结构知识及设计模式
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、精通计算机体系结构知识及设计模式
 2、精通软件调试的相关技术 
-3、深刻理解软件架构设计、面向对象和面向过程的设计
-4、理解完整软件开发流程涉及的相关技术，包括运维、测试等，并落实在执行方案中
-5、掌握指导、培养工P5, P6程师的方法技巧
-6、掌握面试技术员工技巧</t>
-  </si>
-  <si>
-    <t>1、掌握面向过程、面向对象编程范式的主要区别和适用范围
-2、精通设计模式与多种开发框架
-3、精通多种性能调优技巧和手段
-4、掌握区块链系统建模、设计与重构等方法论
-5、精通高性能、高并发、分布式应用软件的设计与实现
-6、精通高并发系统性能测试规划
-7、掌握更深入的测试和调试知识以及质量管理和控制方法</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、精通多种性能调优技巧和手段
+2、精通高并发系统性能测试规划
+</t>
   </si>
   <si>
     <t>完成和推进</t>
@@ -3832,10 +3821,33 @@
 3、至少掌握一种开发环境</t>
   </si>
   <si>
+    <t>1. 理解能力强</t>
+  </si>
+  <si>
+    <t>1，表达和理解能力强</t>
+  </si>
+  <si>
+    <t>1，掌握的测试和调试知识以及质量管理和控制方法
+2，很强的沟通和汇报能力</t>
+  </si>
+  <si>
+    <t>1，精通的测试和调试知识以及质量管理和控制方法
+2，很强的沟通和汇报能力</t>
+  </si>
+  <si>
     <t>改进和优化</t>
   </si>
   <si>
-    <t>2、掌握公司开发编码规范</t>
+    <t>1、掌握公司开发编码规范</t>
+  </si>
+  <si>
+    <t>1、掌握指导、培养初级工程师的方法技巧</t>
+  </si>
+  <si>
+    <t>1、掌握指导、培养工P5, P6程师的方法技巧</t>
+  </si>
+  <si>
+    <t>1、掌握指导、培养工P7架构师的方法技巧</t>
   </si>
   <si>
     <t>规划和总结</t>
@@ -3843,6 +3855,20 @@
   <si>
     <t xml:space="preserve">1、掌握开发过程文档的编写
 </t>
+  </si>
+  <si>
+    <t>1，掌握uml语言</t>
+  </si>
+  <si>
+    <t>1，精通uml语言
+2、理解软件架构设计、面向对象和面向过程的设计
+3、理解完整软件开发流程涉及的相关技术，包括运维、测试等，并落实在执行方案中</t>
+  </si>
+  <si>
+    <t>1，精通uml语言
+2、掌握面向过程、面向对象编程范式的主要区别和适用范围
+3、精通设计模式与多种开发框架
+4、精通高性能、高并发、分布式应用软件的设计与实现</t>
   </si>
   <si>
     <t xml:space="preserve">①自我驱动 2           ②诚信正直 2
@@ -4544,13 +4570,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="68">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4730,12 +4756,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -4833,24 +4853,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4862,9 +4875,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4881,6 +4893,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4903,14 +4923,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4924,7 +4945,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4938,28 +4987,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4970,21 +5005,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5008,7 +5028,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5018,30 +5038,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5077,7 +5073,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5089,169 +5229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5862,6 +5846,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -5878,11 +5892,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5902,50 +5923,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5954,155 +5938,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="62" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="60" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="41" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="15" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="27" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="22" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -6245,55 +6229,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6401,28 +6385,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6443,10 +6427,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6455,7 +6439,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6476,10 +6460,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
@@ -6502,16 +6486,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6554,7 +6538,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6570,7 +6554,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
@@ -6579,23 +6563,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="16"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6613,7 +6597,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="27" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="27" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6628,10 +6612,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6679,7 +6663,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="16" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="16" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6692,10 +6676,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6710,10 +6694,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="16" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="16" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6738,7 +6722,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6756,13 +6740,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6771,7 +6755,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6789,122 +6773,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="33" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="33" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="34" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="35" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="35" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="37" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="37" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="33" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="39" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="38" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="39" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="38" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="33" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="40" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="39" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="40" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="39" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="34" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="37" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="41" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="40" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="39" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="38" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="39" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="38" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="39" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="38" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="39" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="38" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="2" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="37" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="37" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="39" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="39" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="39" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="39" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="39" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="44" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="34" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="43" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="44" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="43" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="44" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="43" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -6913,8 +6897,8 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF 2" xfId="1"/>
-    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF" xfId="2"/>
+    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF" xfId="1"/>
+    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -8338,348 +8322,370 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="12.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.85714285714286" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5357142857143" style="3" customWidth="1"/>
-    <col min="3" max="3" width="54.4642857142857" style="3" customWidth="1"/>
-    <col min="4" max="4" width="49.4017857142857" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.1428571428571" style="3" customWidth="1"/>
-    <col min="6" max="6" width="72.1785714285714" style="3" customWidth="1"/>
-    <col min="7" max="7" width="59.8214285714286" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="16.2857142857143" style="3"/>
+    <col min="1" max="1" width="7.85714285714286" style="49" customWidth="1"/>
+    <col min="2" max="2" width="13.5357142857143" style="49" customWidth="1"/>
+    <col min="3" max="3" width="41.5178571428571" style="49" customWidth="1"/>
+    <col min="4" max="4" width="49.4017857142857" style="49" customWidth="1"/>
+    <col min="5" max="5" width="43.1428571428571" style="49" customWidth="1"/>
+    <col min="6" max="6" width="71.6071428571429" style="49" customWidth="1"/>
+    <col min="7" max="7" width="79.4642857142857" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="16.2857142857143" style="49"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" spans="1:7">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="13" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" s="46" customFormat="1" ht="13" spans="1:7">
+      <c r="A2" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="51" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="23" spans="1:7">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="47" customFormat="1" ht="23" spans="1:7">
+      <c r="A3" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="59" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="45" spans="1:7">
-      <c r="A4" s="48" t="s">
+    <row r="4" s="47" customFormat="1" ht="45" spans="1:7">
+      <c r="A4" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="54" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="68" spans="1:7">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+    <row r="5" s="47" customFormat="1" ht="45" spans="1:7">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="46" customHeight="1" spans="1:7">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49" t="s">
+    <row r="6" s="47" customFormat="1" ht="13" spans="1:7">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="34" spans="1:7">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49" t="s">
+    <row r="7" s="47" customFormat="1" ht="23" spans="1:7">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="58" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="56" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="56" spans="1:7">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49" t="s">
+    <row r="8" s="47" customFormat="1" ht="61" customHeight="1" spans="1:7">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="58" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="56" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9" s="46" customFormat="1" ht="45" spans="1:7">
-      <c r="A9" s="50" t="s">
+    <row r="9" s="48" customFormat="1" ht="45" spans="1:7">
+      <c r="A9" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="56" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="56" t="s">
         <v>362</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="56" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="10" s="46" customFormat="1" ht="125" customHeight="1" spans="1:7">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51" t="s">
+    <row r="10" s="48" customFormat="1" ht="59" customHeight="1" spans="1:7">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="56" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="11" s="46" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51" t="s">
+    <row r="11" s="48" customFormat="1" ht="56" spans="1:7">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53" t="s">
         <v>372</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="D11" s="56" t="s">
         <v>374</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="E11" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="F11" s="56" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="12" s="46" customFormat="1" ht="123" customHeight="1" spans="1:7">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51" t="s">
+      <c r="G11" s="56" t="s">
         <v>377</v>
       </c>
-      <c r="C12" s="52" t="s">
+    </row>
+    <row r="12" s="48" customFormat="1" ht="123" customHeight="1" spans="1:7">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="C12" s="56" t="s">
         <v>379</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="E12" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="F12" s="56" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="13" ht="79" spans="1:7">
+      <c r="G12" s="56" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:7">
       <c r="A13" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>383</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54" t="s">
+      <c r="B13" s="54" t="s">
         <v>384</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="F13" s="57" t="s">
         <v>387</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="14" ht="34" spans="1:7">
       <c r="A14" s="53"/>
-      <c r="B14" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="C14" s="54" t="s">
+      <c r="B14" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="57"/>
+      <c r="C14" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="15" ht="13" spans="1:7">
       <c r="A15" s="53"/>
-      <c r="B15" s="49" t="s">
-        <v>390</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54" t="s">
-        <v>391</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="57"/>
-    </row>
-    <row r="16" ht="23" spans="1:7">
+      <c r="B15" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:7">
       <c r="A16" s="53"/>
-      <c r="B16" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="17" hidden="1" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" ht="45" spans="1:7">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>397</v>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -8725,7 +8731,7 @@
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -8781,64 +8787,64 @@
         <v>245</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C4" s="276" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="68" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="44" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C5" s="276" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" ht="68" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="44" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" ht="157" spans="1:7">
@@ -8846,64 +8852,64 @@
         <v>251</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" ht="34" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="44" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" ht="23" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="44" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" ht="79" spans="1:7">
@@ -8912,19 +8918,19 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="45" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" ht="45" spans="1:7">
@@ -8933,19 +8939,19 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -8990,7 +8996,7 @@
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9046,64 +9052,64 @@
         <v>245</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" s="31" customFormat="1" ht="68" spans="1:7">
       <c r="A5" s="32"/>
       <c r="B5" s="12" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" s="31" customFormat="1" ht="56" spans="1:7">
       <c r="A6" s="32"/>
       <c r="B6" s="12" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" ht="23" spans="1:7">
@@ -9111,64 +9117,64 @@
         <v>251</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" ht="45" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="35" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" ht="34" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="35" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" ht="156.75" customHeight="1" spans="1:7">
@@ -9177,19 +9183,19 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="38" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" ht="48.75" customHeight="1" spans="1:7">
@@ -9198,19 +9204,19 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -9255,7 +9261,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9312,19 +9318,19 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="25" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" ht="101" spans="1:7">
@@ -9333,19 +9339,19 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="25" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" ht="79" spans="1:7">
@@ -9354,19 +9360,19 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="25" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" ht="26" spans="1:7">
@@ -9455,7 +9461,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9511,85 +9517,85 @@
         <v>245</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" ht="34" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="11" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" ht="34" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="11" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="11" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" ht="125.25" customHeight="1" spans="1:7">
@@ -9598,19 +9604,19 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="14" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" ht="101" spans="1:7">
@@ -9619,19 +9625,19 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="14" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" ht="26" spans="1:7">
@@ -9639,7 +9645,7 @@
         <v>263</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>264</v>
@@ -9660,22 +9666,22 @@
     <row r="11" ht="26" spans="1:7">
       <c r="A11" s="17"/>
       <c r="B11" s="16" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -11728,11 +11734,11 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="12.8" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -11929,11 +11935,11 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="12.8" outlineLevelRow="7" outlineLevelCol="6"/>
